--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_8_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1406253.935840212</v>
+        <v>1426848.928593989</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484445</v>
+        <v>278692.072591686</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6660542.196433455</v>
+        <v>6769178.17211453</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>327.2879775827831</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>89.61218820596251</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -823,19 +823,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>28.83599341211213</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>33.77758775668029</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>320.0331481255878</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>126.4370384518744</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>62.82088317610085</v>
+        <v>62.82088317610075</v>
       </c>
       <c r="T6" t="n">
         <v>128.8768572327044</v>
@@ -1057,16 +1057,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>108.6135018521723</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>23.34081400228366</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1133,22 +1133,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>100.9729494311658</v>
       </c>
       <c r="E8" t="n">
-        <v>114.5625626002748</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,13 +1187,13 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>33.08339867820333</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864827</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244295</v>
       </c>
       <c r="H13" t="n">
-        <v>29.1046117873896</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>252.2249742409804</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1594,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>129.7853418074784</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50.30825486907122</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>122.2867803188855</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2068,7 +2068,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>161.7153088076657</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>218.8817978897415</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2485,16 +2485,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>31.2883124111826</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800047</v>
       </c>
       <c r="T29" t="n">
         <v>217.8665548556918</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,7 +2965,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>24.62703520776661</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3032,7 +3032,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3433,16 +3433,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>78.37744390510608</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3484,7 +3484,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3518,10 +3518,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314476</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225582</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>46.24876144511802</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3740,13 +3740,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884123</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>340.2336157526065</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791314476</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3961,7 +3961,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>34.71811217257828</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3992,10 +3992,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314476</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>32.670777199071</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,7 +4150,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>114.9577730479993</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>503.8064494671689</v>
       </c>
       <c r="C2" t="n">
-        <v>920.1271132564331</v>
+        <v>469.7043806909962</v>
       </c>
       <c r="D2" t="n">
-        <v>491.5454389937014</v>
+        <v>437.8349999058448</v>
       </c>
       <c r="E2" t="n">
-        <v>461.8110981924006</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4331,16 +4331,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>874.0494664914149</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>949.4537989923044</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>530.3113355716151</v>
       </c>
       <c r="Y2" t="n">
-        <v>1677.020600491627</v>
+        <v>526.0656159116726</v>
       </c>
     </row>
     <row r="3">
@@ -4413,16 +4413,16 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>884.4397056785397</v>
+        <v>795.6640374988237</v>
       </c>
       <c r="C4" t="n">
-        <v>711.8779941617646</v>
+        <v>623.1023259820487</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>457.2243331835714</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1675.765608785789</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="U4" t="n">
-        <v>1397.332608038895</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="V4" t="n">
-        <v>1110.377099909325</v>
+        <v>1259.509060631519</v>
       </c>
       <c r="W4" t="n">
-        <v>1076.258324397527</v>
+        <v>987.4826562178109</v>
       </c>
       <c r="X4" t="n">
-        <v>1076.258324397527</v>
+        <v>987.4826562178109</v>
       </c>
       <c r="Y4" t="n">
-        <v>1076.258324397527</v>
+        <v>987.4826562178109</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.6402219259112</v>
+        <v>975.8202272924905</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>941.7181585163178</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>909.8487777311664</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>476.0740328894615</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>452.2470073390733</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233721</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233721</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947722</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.43238658947722</v>
       </c>
       <c r="K5" t="n">
-        <v>857.0776321906106</v>
+        <v>50.43238658947722</v>
       </c>
       <c r="L5" t="n">
-        <v>857.0776321906106</v>
+        <v>50.43238658947722</v>
       </c>
       <c r="M5" t="n">
-        <v>857.0776321906106</v>
+        <v>50.43238658947722</v>
       </c>
       <c r="N5" t="n">
-        <v>857.0776321906106</v>
+        <v>557.7649106726484</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>1181.865694717429</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1805.966478762209</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2352.465264720804</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473861</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473861</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.5521023469</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.5521023469</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1938.935152280726</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1534.079697691759</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>1406.365517437341</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>1402.119797777398</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807701</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174123</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639656</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909193</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070809</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326475</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947722</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993482</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161471</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760928</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813124</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605332</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>482.0939808483479</v>
+        <v>593.0357356940453</v>
       </c>
       <c r="C7" t="n">
-        <v>309.5322693315729</v>
+        <v>420.4740241772703</v>
       </c>
       <c r="D7" t="n">
-        <v>143.6542765330956</v>
+        <v>420.4740241772703</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>250.7160204280075</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>74.00896638976374</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947722</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947722</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947722</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>50.43238658947722</v>
       </c>
       <c r="K7" t="n">
-        <v>395.2818083374338</v>
+        <v>325.1908411606128</v>
       </c>
       <c r="L7" t="n">
-        <v>813.4916901053949</v>
+        <v>743.4007229285739</v>
       </c>
       <c r="M7" t="n">
-        <v>813.4916901053949</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>813.4916901053949</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473861</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.201508179233</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2340.960139477229</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2095.080693055685</v>
       </c>
       <c r="U7" t="n">
-        <v>1418.750429333523</v>
+        <v>1816.64769230879</v>
       </c>
       <c r="V7" t="n">
-        <v>1418.750429333523</v>
+        <v>1529.69218417922</v>
       </c>
       <c r="W7" t="n">
-        <v>1146.724024919814</v>
+        <v>1257.665779765512</v>
       </c>
       <c r="X7" t="n">
-        <v>901.3322702532269</v>
+        <v>1012.274025098924</v>
       </c>
       <c r="Y7" t="n">
-        <v>673.9125995673351</v>
+        <v>784.8543544130325</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1030.653802879758</v>
+        <v>1340.268492507381</v>
       </c>
       <c r="C8" t="n">
-        <v>602.072128617026</v>
+        <v>1306.166423731208</v>
       </c>
       <c r="D8" t="n">
-        <v>173.4904543542943</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1477.116202953456</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1477.116202953456</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W8" t="n">
-        <v>1476.301152404893</v>
+        <v>1785.915842032516</v>
       </c>
       <c r="X8" t="n">
-        <v>1461.199093024608</v>
+        <v>1770.813782652231</v>
       </c>
       <c r="Y8" t="n">
-        <v>1456.953373364666</v>
+        <v>1766.568062992289</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1024.341879988165</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>851.7801684713901</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>685.9021756729128</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>516.14417192365</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1292.259348259376</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1688.971924059632</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1443.580169393044</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1216.160498707152</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2522.958394689264</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2084.815921872688</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1648.906137047132</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.131392205427</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.263962614635</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>2441.40092234507</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3421.580588915377</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4249.890463748773</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4796.389249707368</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4803.381259633331</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4544.158956950348</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.542006884174</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3776.686552295207</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.544088874518</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.257965174171</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>976.6306115230868</v>
+        <v>1041.416826573034</v>
       </c>
       <c r="C13" t="n">
-        <v>804.0689000063113</v>
+        <v>868.8551150562593</v>
       </c>
       <c r="D13" t="n">
-        <v>638.190907207834</v>
+        <v>702.977122257782</v>
       </c>
       <c r="E13" t="n">
-        <v>468.4329034585713</v>
+        <v>533.2191185085193</v>
       </c>
       <c r="F13" t="n">
-        <v>291.7258494203275</v>
+        <v>356.5120644702755</v>
       </c>
       <c r="G13" t="n">
-        <v>126.1345744461552</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111518</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2691.977765289287</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2532.736396587284</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2286.856950165739</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2008.423949418844</v>
+        <v>2037.609112501887</v>
       </c>
       <c r="V13" t="n">
-        <v>1721.468441289275</v>
+        <v>1750.653604372317</v>
       </c>
       <c r="W13" t="n">
-        <v>1449.442036875566</v>
+        <v>1478.627199958609</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.050282208979</v>
+        <v>1233.235445292021</v>
       </c>
       <c r="Y13" t="n">
-        <v>976.6306115230868</v>
+        <v>1233.235445292021</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2252.656868168567</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1814.514395351991</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1378.604610526435</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>944.8298656847301</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>516.9624360939379</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G14" t="n">
-        <v>385.8661312378989</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>531.9906641340331</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1607.050630386892</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M14" t="n">
-        <v>2764.098465597443</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N14" t="n">
-        <v>3889.82944903389</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>4121.145983344108</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>947.2320137580466</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>774.6703022412714</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>608.7923094427941</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>439.0343056935313</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>262.3272516552875</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458048</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169404</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849015</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2308.274771460367</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2029.841770713472</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177145</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.222555802381</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318544</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277513</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510152</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423107</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742889</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832467</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085327</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2574.179093706255</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3554.358760276561</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4382.668635109958</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4929.167421068553</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068553</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>4929.167421068553</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4805.645420746448</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4546.423118063464</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.806167997291</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.950713408324</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.808249987635</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.522126287288</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126639</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493061</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958594</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228131</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389747</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051586</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818287</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.205346548041</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679165</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.5447737132063</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.058994492427</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.1480597494544</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>699.5863482326796</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>533.7083554342023</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>363.9503516849395</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>187.2432976466957</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>187.2432976466957</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466957</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137107</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860608</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571964</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251575</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489496</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2556.001589622167</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2310.122143200622</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2031.689142453727</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1744.733634324157</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1472.707229910449</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1227.315475243862</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1063.966678468442</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5741,7 +5741,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5759,43 +5759,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5911,7 +5911,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
         <v>881.8088617745661</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2451.623182457407</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2173.190181710512</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1952.097456569359</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1680.07105215565</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1434.679297489063</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5978,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5999,19 +5999,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>2758.053686176684</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
         <v>5029.390139722817</v>
@@ -6026,7 +6026,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1036.216302815309</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>863.6545912985338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>697.7765985000565</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>528.0185947507937</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1972.872751300483</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1700.846346886775</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1455.454592220187</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1228.034921534296</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6233,19 +6233,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6388,7 +6388,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745664</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M28" t="n">
         <v>1341.292728955479</v>
@@ -6455,7 +6455,7 @@
         <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6467,10 +6467,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6543,22 +6543,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q30" t="n">
         <v>1648.327823655249</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883918</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716167</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>639.1929661716167</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>469.4349624223539</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>292.7279083841102</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>127.1366334099378</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
         <v>1654.847790009657</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,40 +6710,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6917,19 +6917,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,19 +6944,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7017,22 +7017,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1083.7810821021</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>911.2193705853252</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>745.3413777868479</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>575.5833740375851</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1748.411126173567</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1503.019371506979</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1275.599700821087</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903935</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736185</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751412</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258784</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>286.0912842876346</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134623</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7333,49 +7333,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745642</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955477</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113122</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338903</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309245</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="T40" t="n">
-        <v>2491.545339525313</v>
+        <v>2473.041003752033</v>
       </c>
       <c r="U40" t="n">
-        <v>2213.112338778418</v>
+        <v>2194.608003005138</v>
       </c>
       <c r="V40" t="n">
-        <v>1926.156830648849</v>
+        <v>1907.652494875568</v>
       </c>
       <c r="W40" t="n">
-        <v>1654.13042623514</v>
+        <v>1635.62609046186</v>
       </c>
       <c r="X40" t="n">
-        <v>1408.738671568553</v>
+        <v>1390.234335795273</v>
       </c>
       <c r="Y40" t="n">
-        <v>1181.319000882661</v>
+        <v>1162.814665109381</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2436.531460638994</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>1998.388987822417</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1562.479202996862</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E41" t="n">
-        <v>1218.808884054836</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640435</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873074</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.6776296436394</v>
       </c>
       <c r="I41" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834416</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2665.685099163888</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2665.685099163888</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.864765734194</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4474.17464056759</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5020.673426526186</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.673426526186</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4937.021552710023</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4716.954325583061</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4457.732022900078</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4095.115072833904</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3690.259618244937</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3271.117154824248</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2862.831031123902</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218165</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584588</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.038463505012</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319657</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481273</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143112</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909813</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571936</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1131.768986727571</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>1131.768986727571</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>1131.768986727571</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>1131.768986727571</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>1131.768986727571</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>1131.768986727571</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788317</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223589</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.8891146015796</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1179.471629142405</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>1006.90991762563</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>841.0319248271528</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>671.27392107789</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5668670396462</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>328.9755920654738</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>189.0734177558484</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.4134685305237</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952136</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663491</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343101</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215223</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2717.073078433324</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2717.073078433324</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2471.193632011778</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2192.760631264884</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1905.805123135314</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1633.778718721606</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1598.709918547284</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1371.290247861392</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2523.375184062124</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397516</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2441.40092234507</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2481.810506693461</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3461.990173263767</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4290.300048097163</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4836.798834055758</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055758</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4803.798049006191</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4803.798049006191</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4544.575746323208</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4181.958796257034</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.103341668068</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3357.960878247378</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2949.674754547032</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.064021433509</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.064021433509</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.064021433509</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.064021433509</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.064021433509</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.064021433509</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>914.5724765508968</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>914.5724765508968</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>748.6944837524195</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>578.9364800031568</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>402.229425964913</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>236.6381509907407</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111516</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849016</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583914</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2691.977765289286</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2532.736396587283</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2416.617433912536</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2138.184433165641</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1851.228925036072</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1579.202520622363</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.810765955776</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1106.391095269884</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7979,19 +7979,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>236.2898988798406</v>
@@ -8061,19 +8061,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8134,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,19 +8225,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>512.4570950335063</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684652</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741731</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,19 +8380,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238448</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>40.81776196807186</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8927,22 +8927,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>233.6530649598158</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>132.2533329504331</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9659,7 +9659,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>565.8642197954478</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10191,7 +10191,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>222.835035322636</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963859</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>40.81776196807141</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>184.7831561774884</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>109.3985407791396</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>23.42369649844528</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>267.5985112554903</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>139.592177662726</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>95.57977453680626</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>63.43016517136707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>65.20415515853236</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>143.6516710866787</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>113.8761173587626</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>96.56253959275526</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>120.4463752142734</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>197.1718905122113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25634,7 +25634,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>89.20338164068124</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25834,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25913,10 +25913,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>50.14457787893036</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
-        <v>128.46287890933</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>544993.4436614371</v>
+        <v>561903.2068924711</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>544993.4436614371</v>
+        <v>564947.846953705</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>570767.221779637</v>
+        <v>594854.2507647312</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>570767.2217796372</v>
+        <v>594854.2507647312</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>578821.3023793881</v>
+        <v>594854.2507647312</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>594854.2507647311</v>
+        <v>594854.2507647312</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>594854.2507647313</v>
+        <v>594854.2507647311</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>586800.1701649801</v>
+        <v>594854.2507647312</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>570767.221779637</v>
+        <v>594854.2507647312</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442321.538909587</v>
+        <v>442321.5389095868</v>
       </c>
       <c r="C2" t="n">
         <v>442321.538909587</v>
       </c>
       <c r="D2" t="n">
-        <v>442321.5389095871</v>
+        <v>442321.538909587</v>
       </c>
       <c r="E2" t="n">
-        <v>417057.2158266329</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="F2" t="n">
-        <v>417057.2158266329</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="G2" t="n">
-        <v>422942.2987515113</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="H2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="I2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="J2" t="n">
         <v>434657.5069133157</v>
@@ -26347,13 +26347,13 @@
         <v>434657.5069133157</v>
       </c>
       <c r="N2" t="n">
+        <v>434657.5069133157</v>
+      </c>
+      <c r="O2" t="n">
         <v>434657.5069133156</v>
       </c>
-      <c r="O2" t="n">
-        <v>428772.4239884374</v>
-      </c>
       <c r="P2" t="n">
-        <v>417057.215826633</v>
+        <v>434657.5069133157</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.7678950167</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998226</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.211042850504</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996345</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877288</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726621954</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,19 +26418,19 @@
         <v>218225.2660325691</v>
       </c>
       <c r="C4" t="n">
-        <v>218225.2660325691</v>
+        <v>187964.4997909367</v>
       </c>
       <c r="D4" t="n">
-        <v>218225.2660325691</v>
+        <v>182515.9822733277</v>
       </c>
       <c r="E4" t="n">
-        <v>103931.2982770052</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="F4" t="n">
-        <v>103931.2982770052</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="G4" t="n">
-        <v>105397.8699742197</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="H4" t="n">
         <v>108317.3178284629</v>
@@ -26442,7 +26442,7 @@
         <v>108317.3178284629</v>
       </c>
       <c r="K4" t="n">
-        <v>108317.3178284629</v>
+        <v>108317.317828463</v>
       </c>
       <c r="L4" t="n">
         <v>108317.3178284629</v>
@@ -26451,13 +26451,13 @@
         <v>108317.3178284629</v>
       </c>
       <c r="N4" t="n">
-        <v>108317.317828463</v>
+        <v>108317.3178284628</v>
       </c>
       <c r="O4" t="n">
-        <v>106850.7461312484</v>
+        <v>108317.3178284629</v>
       </c>
       <c r="P4" t="n">
-        <v>103931.2982770052</v>
+        <v>108317.3178284629</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800268</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.344800242</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26494,22 +26494,22 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319802</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22480.18408008567</v>
+        <v>22480.18408008543</v>
       </c>
       <c r="C6" t="n">
-        <v>164671.4847397955</v>
+        <v>115813.0574156309</v>
       </c>
       <c r="D6" t="n">
-        <v>164671.4847397957</v>
+        <v>174065.4365245193</v>
       </c>
       <c r="E6" t="n">
-        <v>5251.553249942837</v>
+        <v>66243.61691862797</v>
       </c>
       <c r="F6" t="n">
-        <v>239606.5752719802</v>
+        <v>248598.7261396775</v>
       </c>
       <c r="G6" t="n">
-        <v>236291.8729341991</v>
+        <v>248598.7261396775</v>
       </c>
       <c r="H6" t="n">
-        <v>236219.1954990967</v>
+        <v>248598.7261396777</v>
       </c>
       <c r="I6" t="n">
-        <v>248621.9504790601</v>
+        <v>248598.7261396776</v>
       </c>
       <c r="J6" t="n">
-        <v>137607.4851340701</v>
+        <v>137584.2607946874</v>
       </c>
       <c r="K6" t="n">
-        <v>248621.9504790603</v>
+        <v>195552.8715009046</v>
       </c>
       <c r="L6" t="n">
-        <v>248621.9504790603</v>
+        <v>239206.4244130556</v>
       </c>
       <c r="M6" t="n">
-        <v>53020.77119599265</v>
+        <v>96398.55520168997</v>
       </c>
       <c r="N6" t="n">
-        <v>248621.9504790601</v>
+        <v>248598.7261396778</v>
       </c>
       <c r="O6" t="n">
-        <v>245607.441773991</v>
+        <v>248598.7261396776</v>
       </c>
       <c r="P6" t="n">
-        <v>239606.5752719803</v>
+        <v>248598.7261396777</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684652</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267138</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.168356631546</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.199708513939</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483609</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939175</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811760707</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483606</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939197</v>
       </c>
       <c r="M4" t="n">
-        <v>784.903850993835</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483609</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939175</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319884</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811760707</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>106.4730705056278</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>339.8248091873252</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27543,19 +27543,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>139.224430299658</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -27594,10 +27594,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>235.5285526128911</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>113.7278999628231</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>288.514000334608</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,16 +27777,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>59.44692185959779</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>140.594548222147</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>9.465190568306582</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>7.254829457195569</v>
+        <v>330.5777375461341</v>
       </c>
       <c r="E8" t="n">
-        <v>314.8744347930129</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27907,13 +27907,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-5.005947602801767e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>236.2898988798406</v>
@@ -34781,19 +34781,19 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>409.401749030468</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,19 +34945,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>512.4570950335063</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684652</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684651</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664741731</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,10 +35033,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>371.7091627680287</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238448</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>409.0142240616578</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,7 +35410,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>1085.919157831171</v>
@@ -35419,19 +35419,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>40.81776196807186</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,19 +35483,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,22 +35647,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>233.6530649598158</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908047</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35811,13 +35811,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,7 +35884,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
@@ -35893,7 +35893,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>132.2533329504331</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35902,10 +35902,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157532</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908058</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36048,13 +36048,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N20" t="n">
-        <v>314.2706063049995</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36367,7 +36367,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>314.2706063049995</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36379,7 +36379,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36601,22 +36601,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>565.8642197954478</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36756,7 +36756,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080417</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645586</v>
@@ -36765,7 +36765,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -36835,13 +36835,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>92.22506899525706</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J30" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37078,7 +37078,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>314.2706063049986</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37701,22 +37701,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080396</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821539</v>
@@ -37780,13 +37780,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>222.835035322636</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327043</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963859</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37944,13 +37944,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>40.81776196807141</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38038,7 +38038,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,13 +38187,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
